--- a/Exercícios/Dicionário_de_Dados/Dicionario_de Dados_Biblioteca.xlsx
+++ b/Exercícios/Dicionário_de_Dados/Dicionario_de Dados_Biblioteca.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="221">
   <si>
     <t>Dicionario de  dados</t>
   </si>
@@ -684,6 +684,9 @@
   </si>
   <si>
     <t>Bibliotecarios_estantes</t>
+  </si>
+  <si>
+    <t>FK</t>
   </si>
 </sst>
 </file>
@@ -863,13 +866,45 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -881,53 +916,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1213,13 +1216,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" style="21" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="51.28515625" customWidth="1"/>
@@ -1233,19 +1236,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1261,22 +1264,22 @@
       <c r="X1" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="G3" s="18" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="G3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -1288,16 +1291,16 @@
       <c r="D4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="35" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1306,7 +1309,7 @@
       <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="32" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="12" t="s">
@@ -1326,14 +1329,14 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="33"/>
       <c r="G6" s="10" t="s">
         <v>48</v>
       </c>
@@ -1351,14 +1354,14 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="33"/>
       <c r="G7" s="10" t="s">
         <v>49</v>
       </c>
@@ -1376,14 +1379,14 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="33"/>
       <c r="G8" s="10" t="s">
         <v>50</v>
       </c>
@@ -1399,14 +1402,14 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="34"/>
       <c r="G9" s="10" t="s">
         <v>100</v>
       </c>
@@ -1422,7 +1425,7 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1431,36 +1434,36 @@
       <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="G11" s="19" t="s">
+      <c r="D11" s="33"/>
+      <c r="G11" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="33"/>
       <c r="G12" s="12" t="s">
         <v>43</v>
       </c>
@@ -1478,14 +1481,14 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="34"/>
       <c r="G13" s="10" t="s">
         <v>100</v>
       </c>
@@ -1503,7 +1506,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1532,7 +1535,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="2" t="s">
         <v>214</v>
       </c>
@@ -1557,7 +1560,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -1582,7 +1585,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="2" t="s">
         <v>219</v>
       </c>
@@ -1607,7 +1610,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1632,7 +1635,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1642,7 +1645,7 @@
       <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1650,16 +1653,16 @@
         <v>21</v>
       </c>
       <c r="D20" s="40"/>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1684,7 +1687,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="20" t="s">
         <v>209</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1713,7 +1716,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1722,7 +1725,7 @@
       <c r="C23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="32" t="s">
         <v>37</v>
       </c>
       <c r="G23" s="10" t="s">
@@ -1742,14 +1745,14 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="34"/>
       <c r="G24" s="10" t="s">
         <v>4</v>
       </c>
@@ -1767,7 +1770,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="35" t="s">
         <v>213</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1794,7 +1797,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
@@ -1813,15 +1816,13 @@
       <c r="I26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="J26" s="11"/>
       <c r="K26" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1830,7 +1831,7 @@
       <c r="C27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="32" t="s">
         <v>39</v>
       </c>
       <c r="G27" s="10" t="s">
@@ -1848,34 +1849,34 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="G29" s="19" t="s">
+      <c r="D29" s="34"/>
+      <c r="G29" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="35" t="s">
         <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1884,7 +1885,7 @@
       <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="32" t="s">
         <v>40</v>
       </c>
       <c r="G30" s="12" t="s">
@@ -1904,14 +1905,14 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="21"/>
+      <c r="D31" s="33"/>
       <c r="G31" s="10" t="s">
         <v>91</v>
       </c>
@@ -1929,14 +1930,14 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D32" s="22"/>
+      <c r="D32" s="34"/>
       <c r="G32" s="10" t="s">
         <v>92</v>
       </c>
@@ -1952,7 +1953,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="35" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1961,7 +1962,7 @@
       <c r="C33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="32" t="s">
         <v>41</v>
       </c>
       <c r="G33" s="10" t="s">
@@ -1979,14 +1980,14 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="21"/>
+      <c r="D34" s="33"/>
       <c r="G34" s="10" t="s">
         <v>97</v>
       </c>
@@ -2004,14 +2005,14 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="21"/>
+      <c r="D35" s="33"/>
       <c r="G35" s="10" t="s">
         <v>93</v>
       </c>
@@ -2029,12 +2030,12 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="21"/>
+      <c r="D36" s="33"/>
       <c r="G36" s="10" t="s">
         <v>94</v>
       </c>
@@ -2048,14 +2049,14 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="22"/>
+      <c r="D37" s="34"/>
       <c r="G37" s="10" t="s">
         <v>122</v>
       </c>
@@ -2066,14 +2067,14 @@
         <v>63</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="K37" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2082,7 +2083,7 @@
       <c r="C38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="27" t="s">
         <v>42</v>
       </c>
       <c r="G38" s="10" t="s">
@@ -2102,31 +2103,31 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="24"/>
+      <c r="D39" s="28"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="G40" s="19" t="s">
+      <c r="D40" s="29"/>
+      <c r="G40" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
@@ -2242,25 +2243,25 @@
       <c r="D45" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="17" t="s">
         <v>200</v>
       </c>
       <c r="G46" s="12" t="s">
@@ -2280,7 +2281,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="30" t="s">
         <v>210</v>
       </c>
       <c r="B47" s="7" t="s">
@@ -2289,7 +2290,7 @@
       <c r="C47" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="30" t="s">
         <v>212</v>
       </c>
       <c r="G47" s="10" t="s">
@@ -2309,14 +2310,14 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="30"/>
       <c r="G48" s="10" t="s">
         <v>109</v>
       </c>
@@ -2334,7 +2335,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="31" t="s">
         <v>215</v>
       </c>
       <c r="B49" s="7" t="s">
@@ -2343,24 +2344,24 @@
       <c r="C49" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="30" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="32"/>
-      <c r="G50" s="19" t="s">
+      <c r="D50" s="30"/>
+      <c r="G50" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G51" s="12" t="s">
@@ -2431,13 +2432,13 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G56" s="19" t="s">
+      <c r="G56" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G57" s="12" t="s">
@@ -2576,13 +2577,13 @@
       </c>
     </row>
     <row r="66" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G66" s="19" t="s">
+      <c r="G66" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
     </row>
     <row r="67" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G67" s="12" t="s">
@@ -2636,13 +2637,13 @@
       </c>
     </row>
     <row r="71" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G71" s="19" t="s">
+      <c r="G71" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
     </row>
     <row r="72" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G72" s="12" t="s">
@@ -2713,13 +2714,13 @@
       </c>
     </row>
     <row r="77" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G77" s="19" t="s">
+      <c r="G77" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
     </row>
     <row r="78" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G78" s="12" t="s">
@@ -2807,13 +2808,13 @@
       </c>
     </row>
     <row r="84" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G84" s="19" t="s">
+      <c r="G84" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
     </row>
     <row r="85" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G85" s="12" t="s">
@@ -2901,13 +2902,13 @@
       </c>
     </row>
     <row r="91" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G91" s="19" t="s">
+      <c r="G91" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
     </row>
     <row r="92" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G92" s="12" t="s">
@@ -2961,13 +2962,13 @@
       </c>
     </row>
     <row r="96" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G96" s="19" t="s">
+      <c r="G96" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22"/>
     </row>
     <row r="97" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G97" s="12" t="s">
@@ -3119,13 +3120,13 @@
       </c>
     </row>
     <row r="107" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G107" s="19" t="s">
+      <c r="G107" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="19"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
     </row>
     <row r="108" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G108" s="12" t="s">
@@ -3179,13 +3180,13 @@
       </c>
     </row>
     <row r="112" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G112" s="26" t="s">
+      <c r="G112" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="H112" s="26"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="26"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="23"/>
     </row>
     <row r="113" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G113" s="12" t="s">
@@ -3250,13 +3251,13 @@
       </c>
     </row>
     <row r="118" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G118" s="19" t="s">
+      <c r="G118" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="22"/>
     </row>
     <row r="119" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G119" s="12" t="s">
@@ -3361,13 +3362,13 @@
       </c>
     </row>
     <row r="126" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G126" s="19" t="s">
+      <c r="G126" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="22"/>
+      <c r="J126" s="22"/>
+      <c r="K126" s="22"/>
     </row>
     <row r="127" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G127" s="12" t="s">
@@ -3504,13 +3505,13 @@
       </c>
     </row>
     <row r="136" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G136" s="19" t="s">
+      <c r="G136" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="22"/>
+      <c r="J136" s="22"/>
+      <c r="K136" s="22"/>
     </row>
     <row r="137" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G137" s="12" t="s">
@@ -3616,35 +3617,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="G136:K136"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="G84:K84"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="G112:K112"/>
-    <mergeCell ref="G118:K118"/>
-    <mergeCell ref="G126:K126"/>
-    <mergeCell ref="G77:K77"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="G107:K107"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A10:A13"/>
@@ -3659,6 +3631,35 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="D14:D21"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="G136:K136"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="G84:K84"/>
+    <mergeCell ref="G96:K96"/>
+    <mergeCell ref="G112:K112"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="G126:K126"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="G107:K107"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
